--- a/picture/機械学習.xlsx
+++ b/picture/機械学習.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakagawasachito/Documents/projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B64F2202-F503-E14C-A732-6C3ECEA76A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1398F70-6F2B-5844-88CD-76303E8D4DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="500" windowWidth="25000" windowHeight="14900" xr2:uid="{BCBBD1CA-E1F8-4F42-8B44-81A232F3CA69}"/>
+    <workbookView xWindow="300" yWindow="500" windowWidth="25000" windowHeight="14900" activeTab="1" xr2:uid="{BCBBD1CA-E1F8-4F42-8B44-81A232F3CA69}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="対数" sheetId="1" r:id="rId1"/>
+    <sheet name="標準化" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +28,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>x</t>
     <phoneticPr fontId="1"/>
@@ -50,13 +53,69 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>標準偏差→</t>
+    <rPh sb="0" eb="4">
+      <t>ヒョウジュn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>偏差</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヘンサ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分散</t>
+    <rPh sb="0" eb="2">
+      <t>ブンサn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>標準化</t>
+    <rPh sb="0" eb="3">
+      <t>ヒョウジュn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>偏差</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>偏差^2</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変数A</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変数B</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0.000_ "/>
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -83,12 +142,92 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -97,14 +236,41 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -227,7 +393,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:f>対数!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -266,7 +432,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$11</c:f>
+              <c:f>対数!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -577,7 +743,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:f>対数!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -616,7 +782,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$11</c:f>
+              <c:f>対数!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>0.000_ </c:formatCode>
                 <c:ptCount val="10"/>
@@ -824,6 +990,632 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>変数</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>A</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>の標準化</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>標準化!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-1.5666989036012806</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.2185435916898848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.8703882797784892</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.5222329678670935</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.17407765595569785</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17407765595569785</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5222329678670935</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8703882797784892</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2185435916898848</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5666989036012806</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FAD0-D34F-A8A8-7BE17B28803D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1576894912"/>
+        <c:axId val="1577000064"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1576894912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1577000064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1577000064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1576894912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>変数</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>B</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>の標準化</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>標準化!$E$17:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-1.6080226325288347</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.1734219210345551</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.66212696633540247</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.61099747086548728</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.15083201163624999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10481546571332627</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3604629430629025</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.87175789776205503</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1274053751116313</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7409593207506142</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C39D-6A4A-89D1-9C5E28DD7042}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1604575792"/>
+        <c:axId val="1594115984"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1604575792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1594115984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1594115984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1604575792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -904,6 +1696,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1408,6 +2280,1012 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2563,6 +4441,461 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B85F925-474D-9BC6-FFBA-50B9F0DE6470}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E4DF65-B61B-EF7B-9966-DBCF9232AF12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>14767</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>44303</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>44301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="フレーム 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31B206C2-6B41-004B-B912-9B8859CFD044}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="14767"/>
+          <a:ext cx="1004186" cy="2791046"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 2508"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>302142</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>97169</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>552007</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>221511</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D24C504-FC5D-9746-942A-F44DFCAAB45F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11820747" y="2858681"/>
+          <a:ext cx="4089400" cy="1630621"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>変数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>と</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>B</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>は値のスケールが違う。線形モデルやニューラルネットワークのように特徴量を（値の大小関係や分布に加えて）値の大きさで評価するアルゴリズムでは、学習結果に値の大きな変数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>B</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の影響の方が変数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>よりも強く出てしまう。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>そのためこれらを標準化して扱うことで値の大小関係や分布はそのままに値の大きさを揃えることができる。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>241005</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>44302</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19493</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="フレーム 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4E7BF99-B4A3-604B-8375-9B29B72C43C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3755656"/>
+          <a:ext cx="1004186" cy="2791046"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 2508"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>949843</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>34261</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>29534</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="フレーム 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FE14870-99AF-D242-A080-657A31590149}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3829494" y="0"/>
+          <a:ext cx="1004186" cy="2791046"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 2508"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>949842</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>226238</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>34260</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>4726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="フレーム 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEDD7707-4EF7-9044-B489-E22317AE761F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3829493" y="3740889"/>
+          <a:ext cx="1004186" cy="2791046"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 2508"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -2862,7 +5195,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E175D6AB-4CAE-634F-B049-239BA7D24309}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
@@ -3005,4 +5340,704 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C09ECDD0-23E5-9F4F-B906-D550DECE3C9F}">
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="6">
+        <v>30</v>
+      </c>
+      <c r="B2" s="7">
+        <f>A2-AVERAGE(A$2:A$11)</f>
+        <v>-22.5</v>
+      </c>
+      <c r="C2" s="7">
+        <f>B2^2</f>
+        <v>506.25</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7">
+        <f>B2/C$14</f>
+        <v>-1.5666989036012806</v>
+      </c>
+      <c r="F2" s="7">
+        <f>E2-AVERAGE(E$2:E$11)</f>
+        <v>-1.5666989036012806</v>
+      </c>
+      <c r="G2" s="8">
+        <f>F2^2</f>
+        <v>2.4545454545454546</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="6">
+        <v>35</v>
+      </c>
+      <c r="B3" s="7">
+        <f t="shared" ref="B3:B11" si="0">A3-AVERAGE(A$2:A$11)</f>
+        <v>-17.5</v>
+      </c>
+      <c r="C3" s="7">
+        <f t="shared" ref="C3:C11" si="1">B3^2</f>
+        <v>306.25</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7">
+        <f>B3/C$14</f>
+        <v>-1.2185435916898848</v>
+      </c>
+      <c r="F3" s="7">
+        <f t="shared" ref="F3:F11" si="2">E3-AVERAGE(E$2:E$11)</f>
+        <v>-1.2185435916898848</v>
+      </c>
+      <c r="G3" s="8">
+        <f t="shared" ref="G3:G11" si="3">F3^2</f>
+        <v>1.4848484848484846</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="6">
+        <v>40</v>
+      </c>
+      <c r="B4" s="7">
+        <f t="shared" si="0"/>
+        <v>-12.5</v>
+      </c>
+      <c r="C4" s="7">
+        <f t="shared" si="1"/>
+        <v>156.25</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7">
+        <f>B4/C$14</f>
+        <v>-0.8703882797784892</v>
+      </c>
+      <c r="F4" s="7">
+        <f t="shared" si="2"/>
+        <v>-0.8703882797784892</v>
+      </c>
+      <c r="G4" s="8">
+        <f t="shared" si="3"/>
+        <v>0.75757575757575757</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="6">
+        <v>45</v>
+      </c>
+      <c r="B5" s="7">
+        <f t="shared" si="0"/>
+        <v>-7.5</v>
+      </c>
+      <c r="C5" s="7">
+        <f t="shared" si="1"/>
+        <v>56.25</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7">
+        <f>B5/C$14</f>
+        <v>-0.5222329678670935</v>
+      </c>
+      <c r="F5" s="7">
+        <f t="shared" si="2"/>
+        <v>-0.5222329678670935</v>
+      </c>
+      <c r="G5" s="8">
+        <f t="shared" si="3"/>
+        <v>0.27272727272727271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="6">
+        <v>50</v>
+      </c>
+      <c r="B6" s="7">
+        <f t="shared" si="0"/>
+        <v>-2.5</v>
+      </c>
+      <c r="C6" s="7">
+        <f t="shared" si="1"/>
+        <v>6.25</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7">
+        <f>B6/C$14</f>
+        <v>-0.17407765595569785</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" si="2"/>
+        <v>-0.17407765595569785</v>
+      </c>
+      <c r="G6" s="8">
+        <f t="shared" si="3"/>
+        <v>3.0303030303030307E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="6">
+        <v>55</v>
+      </c>
+      <c r="B7" s="7">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="C7" s="7">
+        <f t="shared" si="1"/>
+        <v>6.25</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7">
+        <f>B7/C$14</f>
+        <v>0.17407765595569785</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" si="2"/>
+        <v>0.17407765595569785</v>
+      </c>
+      <c r="G7" s="8">
+        <f t="shared" si="3"/>
+        <v>3.0303030303030307E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="6">
+        <v>60</v>
+      </c>
+      <c r="B8" s="7">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="C8" s="7">
+        <f t="shared" si="1"/>
+        <v>56.25</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7">
+        <f>B8/C$14</f>
+        <v>0.5222329678670935</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" si="2"/>
+        <v>0.5222329678670935</v>
+      </c>
+      <c r="G8" s="8">
+        <f t="shared" si="3"/>
+        <v>0.27272727272727271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="6">
+        <v>65</v>
+      </c>
+      <c r="B9" s="7">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="C9" s="7">
+        <f t="shared" si="1"/>
+        <v>156.25</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7">
+        <f>B9/C$14</f>
+        <v>0.8703882797784892</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" si="2"/>
+        <v>0.8703882797784892</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="3"/>
+        <v>0.75757575757575757</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="6">
+        <v>70</v>
+      </c>
+      <c r="B10" s="7">
+        <f t="shared" si="0"/>
+        <v>17.5</v>
+      </c>
+      <c r="C10" s="7">
+        <f t="shared" si="1"/>
+        <v>306.25</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7">
+        <f>B10/C$14</f>
+        <v>1.2185435916898848</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" si="2"/>
+        <v>1.2185435916898848</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="3"/>
+        <v>1.4848484848484846</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="6">
+        <v>75</v>
+      </c>
+      <c r="B11" s="7">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
+      <c r="C11" s="7">
+        <f t="shared" si="1"/>
+        <v>506.25</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7">
+        <f>B11/C$14</f>
+        <v>1.5666989036012806</v>
+      </c>
+      <c r="F11" s="7">
+        <f t="shared" si="2"/>
+        <v>1.5666989036012806</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="3"/>
+        <v>2.4545454545454546</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="6">
+        <f>AVERAGE(A2:A11)</f>
+        <v>52.5</v>
+      </c>
+      <c r="B13" s="7">
+        <f>AVERAGE(B2:B11)</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="7">
+        <f>AVERAGE(C2:C11)</f>
+        <v>206.25</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7">
+        <f>AVERAGE(E2:E11)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <f t="shared" ref="F13:G13" si="4">AVERAGE(F2:F11)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="10">
+        <f>SQRT(C13)</f>
+        <v>14.361406616345072</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="11">
+        <f>SQRT(G13)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="6">
+        <v>1115</v>
+      </c>
+      <c r="B17" s="7">
+        <f>A17-AVERAGE(A$17:A$26)</f>
+        <v>-314.5</v>
+      </c>
+      <c r="C17" s="7">
+        <f>B17^2</f>
+        <v>98910.25</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7">
+        <f>B17/C$29</f>
+        <v>-1.6080226325288347</v>
+      </c>
+      <c r="F17" s="7">
+        <f>E17-AVERAGE(E$2:E$11)</f>
+        <v>-1.6080226325288347</v>
+      </c>
+      <c r="G17" s="8">
+        <f>F17^2</f>
+        <v>2.5857367867249637</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="6">
+        <v>1200</v>
+      </c>
+      <c r="B18" s="7">
+        <f t="shared" ref="B18:B26" si="5">A18-AVERAGE(A$17:A$26)</f>
+        <v>-229.5</v>
+      </c>
+      <c r="C18" s="7">
+        <f>B18^2</f>
+        <v>52670.25</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7">
+        <f t="shared" ref="E18:E26" si="6">B18/C$29</f>
+        <v>-1.1734219210345551</v>
+      </c>
+      <c r="F18" s="7">
+        <f t="shared" ref="F18:F25" si="7">E18-AVERAGE(E$2:E$11)</f>
+        <v>-1.1734219210345551</v>
+      </c>
+      <c r="G18" s="8">
+        <f>F18^2</f>
+        <v>1.3769190047644257</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="6">
+        <v>1300</v>
+      </c>
+      <c r="B19" s="7">
+        <f t="shared" si="5"/>
+        <v>-129.5</v>
+      </c>
+      <c r="C19" s="7">
+        <f t="shared" ref="C19:C26" si="8">B19^2</f>
+        <v>16770.25</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7">
+        <f t="shared" si="6"/>
+        <v>-0.66212696633540247</v>
+      </c>
+      <c r="F19" s="7">
+        <f t="shared" si="7"/>
+        <v>-0.66212696633540247</v>
+      </c>
+      <c r="G19" s="8">
+        <f>F19^2</f>
+        <v>0.43841211954852322</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="6">
+        <v>1310</v>
+      </c>
+      <c r="B20" s="7">
+        <f t="shared" si="5"/>
+        <v>-119.5</v>
+      </c>
+      <c r="C20" s="7">
+        <f t="shared" si="8"/>
+        <v>14280.25</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7">
+        <f t="shared" si="6"/>
+        <v>-0.61099747086548728</v>
+      </c>
+      <c r="F20" s="7">
+        <f t="shared" si="7"/>
+        <v>-0.61099747086548728</v>
+      </c>
+      <c r="G20" s="8">
+        <f t="shared" ref="G20:G26" si="9">F20^2</f>
+        <v>0.37331790940402199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="6">
+        <v>1400</v>
+      </c>
+      <c r="B21" s="7">
+        <f t="shared" si="5"/>
+        <v>-29.5</v>
+      </c>
+      <c r="C21" s="7">
+        <f t="shared" si="8"/>
+        <v>870.25</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7">
+        <f t="shared" si="6"/>
+        <v>-0.15083201163624999</v>
+      </c>
+      <c r="F21" s="7">
+        <f t="shared" si="7"/>
+        <v>-0.15083201163624999</v>
+      </c>
+      <c r="G21" s="8">
+        <f t="shared" si="9"/>
+        <v>2.2750295734237851E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="6">
+        <v>1450</v>
+      </c>
+      <c r="B22" s="7">
+        <f t="shared" si="5"/>
+        <v>20.5</v>
+      </c>
+      <c r="C22" s="7">
+        <f t="shared" si="8"/>
+        <v>420.25</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7">
+        <f t="shared" si="6"/>
+        <v>0.10481546571332627</v>
+      </c>
+      <c r="F22" s="7">
+        <f t="shared" si="7"/>
+        <v>0.10481546571332627</v>
+      </c>
+      <c r="G22" s="8">
+        <f t="shared" si="9"/>
+        <v>1.0986281852701474E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="6">
+        <v>1500</v>
+      </c>
+      <c r="B23" s="7">
+        <f t="shared" si="5"/>
+        <v>70.5</v>
+      </c>
+      <c r="C23" s="7">
+        <f t="shared" si="8"/>
+        <v>4970.25</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7">
+        <f t="shared" si="6"/>
+        <v>0.3604629430629025</v>
+      </c>
+      <c r="F23" s="7">
+        <f t="shared" si="7"/>
+        <v>0.3604629430629025</v>
+      </c>
+      <c r="G23" s="8">
+        <f t="shared" si="9"/>
+        <v>0.12993353332156929</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="6">
+        <v>1600</v>
+      </c>
+      <c r="B24" s="7">
+        <f t="shared" si="5"/>
+        <v>170.5</v>
+      </c>
+      <c r="C24" s="7">
+        <f t="shared" si="8"/>
+        <v>29070.25</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7">
+        <f t="shared" si="6"/>
+        <v>0.87175789776205503</v>
+      </c>
+      <c r="F24" s="7">
+        <f t="shared" si="7"/>
+        <v>0.87175789776205503</v>
+      </c>
+      <c r="G24" s="8">
+        <f t="shared" si="9"/>
+        <v>0.75996183231051762</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="6">
+        <v>1650</v>
+      </c>
+      <c r="B25" s="7">
+        <f t="shared" si="5"/>
+        <v>220.5</v>
+      </c>
+      <c r="C25" s="7">
+        <f t="shared" si="8"/>
+        <v>48620.25</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7">
+        <f t="shared" si="6"/>
+        <v>1.1274053751116313</v>
+      </c>
+      <c r="F25" s="7">
+        <f t="shared" si="7"/>
+        <v>1.1274053751116313</v>
+      </c>
+      <c r="G25" s="8">
+        <f t="shared" si="9"/>
+        <v>1.2710428798305982</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="6">
+        <v>1770</v>
+      </c>
+      <c r="B26" s="7">
+        <f t="shared" si="5"/>
+        <v>340.5</v>
+      </c>
+      <c r="C26" s="7">
+        <f t="shared" si="8"/>
+        <v>115940.25</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7">
+        <f t="shared" si="6"/>
+        <v>1.7409593207506142</v>
+      </c>
+      <c r="F26" s="7">
+        <f>E26-AVERAGE(E$2:E$11)</f>
+        <v>1.7409593207506142</v>
+      </c>
+      <c r="G26" s="8">
+        <f t="shared" si="9"/>
+        <v>3.0309393565084402</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="6">
+        <f>AVERAGE(A17:A26)</f>
+        <v>1429.5</v>
+      </c>
+      <c r="B28" s="7">
+        <f>AVERAGE(B17:B26)</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="7">
+        <f>AVERAGE(C17:C26)</f>
+        <v>38252.25</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7">
+        <f>AVERAGE(E17:E26)</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="7">
+        <f t="shared" ref="F28:G28" si="10">AVERAGE(F17:F26)</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="8">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="9"/>
+      <c r="B29" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="10">
+        <f>SQRT(C28)</f>
+        <v>195.58182430890659</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="11">
+        <f>SQRT(G28)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>